--- a/Files/data.xlsx
+++ b/Files/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balla\Downloads\Flask App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balla\Downloads\Flask App\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30CC7D-1317-4A37-BFBA-936822189132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545523BD-0820-4093-B2CE-28FEF1386056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>356</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
